--- a/Utah/Regulatory/UTre_Regulatory Schema Mapping to WaDE.xlsx
+++ b/Utah/Regulatory/UTre_Regulatory Schema Mapping to WaDE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Utah\Regulatory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EF98CA-983D-4FC1-8E74-FD4F4838E62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E143688-864A-487E-B9D4-3C579871E85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2010" windowWidth="29040" windowHeight="15720" tabRatio="645" activeTab="4" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-28920" yWindow="2010" windowWidth="29040" windowHeight="15720" tabRatio="645" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="177">
   <si>
     <t>Name</t>
   </si>
@@ -483,15 +483,6 @@
     <t xml:space="preserve">Water Right Areas are  administrative boundaries based primarily on surface drainage areas. </t>
   </si>
   <si>
-    <t>Utah Department of Natural Resources</t>
-  </si>
-  <si>
-    <t>801-538-7200</t>
-  </si>
-  <si>
-    <t>https://naturalresources.utah.gov/</t>
-  </si>
-  <si>
     <t>UTre_O1</t>
   </si>
   <si>
@@ -499,12 +490,6 @@
   </si>
   <si>
     <t>jreese@utah.gov</t>
-  </si>
-  <si>
-    <t>Managing and protecting natural resources</t>
-  </si>
-  <si>
-    <t>AREA_CODE</t>
   </si>
   <si>
     <t>*extract from shp file</t>
@@ -516,15 +501,6 @@
     <t>UTre_RU + conter</t>
   </si>
   <si>
-    <t>UTre_RO + conter</t>
-  </si>
-  <si>
-    <t>Office</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>*get from regulatoryoverlay.csv</t>
   </si>
   <si>
@@ -534,22 +510,104 @@
     <t>"WaDE Blank"</t>
   </si>
   <si>
+    <t>For temp fix add a string to each shp file id to keep separate from other shp files</t>
+  </si>
+  <si>
+    <t>WaDE Blank</t>
+  </si>
+  <si>
+    <t>The Utah Division of Water Rights (DWRi) is an agency of Utah State Government within the Department of Natural Resources that administers the appropriation and distribution of the State's valuable water resources.</t>
+  </si>
+  <si>
     <t>WRASV
 APTLA
-BCTNA</t>
+BCTNA
+GWP</t>
+  </si>
+  <si>
+    <t>AREA_CODE
+AREA_CODE
+AREA_CODE
+WRAREA</t>
+  </si>
+  <si>
+    <t>We will combine 3 different re projects for a single UT re.</t>
+  </si>
+  <si>
+    <t>https://github.com/WSWCWaterDataExchange/MappingStatesDataToWaDE2.0/issues/283</t>
+  </si>
+  <si>
+    <t>https://github.com/WSWCWaterDataExchange/MappingStatesDataToWaDE2.0/issues/279</t>
+  </si>
+  <si>
+    <t>https://github.com/WSWCWaterDataExchange/MappingStatesDataToWaDE2.0/issues/187</t>
+  </si>
+  <si>
+    <t>Water Right Administratibe Boundaries &amp; Groundwater Policy Regulatory Overlays will share reporting units.</t>
+  </si>
+  <si>
+    <t>(blank)
+(blank)
+(blank)
+73-5-15</t>
+  </si>
+  <si>
+    <t>Link
+Link
+Link
+-</t>
+  </si>
+  <si>
+    <t>-
+-
+-
+https://www.waterrights.utah.gov/groundwater/ManagementReports/ground.asp</t>
+  </si>
+  <si>
+    <t>"Water Right Areas are administrative boundaries based primarily on surface drainage areas. Different water right areas can have different appropriation policies and can be administered by different regional offices."
+The following are excepted from the effect of this proclamation: 1) applications for non-consumptive uses; 2) applications that include a mitigation plan to offset depletion; 3) applications for small amounts of water, as defined in Utah Code 73-3-5.6, that comply with State Engineer basin policies. All such applications remain subject to all applicable requirements of state law.
+Basin closed to new appropriations.
+Groundwater Management Plans are created for areas throughout Utah to promote wise use of the ground-water, protect existing water rights, and address water quality issues and over-appropriation of ground water. The creation, requirements, management, purpose, and effects of these plans are explained in Section 73-5-15 of the Utah State code. All existing Groundwater Management Plans can be viewed by selecting the Management Plans link on the left.</t>
+  </si>
+  <si>
+    <t>Active
+Active
+Active
+-</t>
+  </si>
+  <si>
+    <t>-
+-
+-
+STATUS</t>
+  </si>
+  <si>
+    <t>Office
+Office
+Office
+REGIONAL_O</t>
+  </si>
+  <si>
+    <t>Surface Water and Groundwater
+Surface Water and Groundwater
+Surface Water and Groundwater
+Groundwater</t>
   </si>
   <si>
     <t>Water Right Areas
 Areas Open to Limited Appropriation
-Basins Closed to New Appropriations</t>
+Basins Closed to New Appropriations
+Groundwater Policy Management</t>
   </si>
   <si>
-    <t>For temp fix add a string to each shp file id to keep separate from other shp files</t>
+    <t>I guessed on the 12/10 dates….
+12/10/2023
+12/10/2023
+12/10/2023
+ 5/3/2023</t>
   </si>
   <si>
-    <t>"Water Right Areas are administrative boundaries based primarily on surface drainage areas. Different water right areas can have different appropriation policies and can be administered by different regional offices."
-The following are excepted from the effect of this proclamation: 1) applications for non-consumptive uses; 2) applications that include a mitigation plan to offset depletion; 3) applications for small amounts of water, as defined in Utah Code 73-3-5.6, that comply with State Engineer basin policies. All such applications remain subject to all applicable requirements of state law.
-Basin closed to new appropriations.</t>
+    <t>UTre_RO + counter</t>
   </si>
 </sst>
 </file>
@@ -559,7 +617,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -711,6 +769,13 @@
       <i/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -882,7 +947,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1213,9 +1278,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1234,13 +1296,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1559,11 +1621,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1638,35 +1700,64 @@
       <c r="A8" s="65" t="s">
         <v>34</v>
       </c>
+      <c r="B8" t="s">
+        <v>161</v>
+      </c>
       <c r="C8" s="64"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="66"/>
+      <c r="B9" t="s">
+        <v>162</v>
+      </c>
       <c r="C9" s="64"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="66"/>
+      <c r="B10" s="113" t="s">
+        <v>163</v>
+      </c>
       <c r="C10" s="64"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="66"/>
+      <c r="B11" s="113" t="s">
+        <v>164</v>
+      </c>
       <c r="C11" s="64"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="66"/>
+      <c r="B12" t="s">
+        <v>165</v>
+      </c>
       <c r="C12" s="64"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="66"/>
+      <c r="C13" s="64"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="66"/>
+      <c r="C14" s="64"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="66"/>
+      <c r="C15" s="64"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="66" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{A0114B21-71AD-4C8A-AEF8-6BDBCEE349EA}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{2C481501-B2EF-4258-816B-555484D5BBF9}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{D53885AE-C629-41AC-AAF2-43C917E294C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1867,7 +1958,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1877,7 +1968,7 @@
     <col min="3" max="3" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.109375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.109375" style="1" bestFit="1" customWidth="1"/>
@@ -1972,13 +2063,13 @@
       <c r="E3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="120" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3" s="115" t="s">
+      <c r="F3" s="119" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="117" t="s">
+      <c r="H3" s="116" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="69" t="s">
@@ -2007,13 +2098,13 @@
       <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="121" t="s">
-        <v>152</v>
+      <c r="F4" s="122" t="s">
+        <v>149</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="116" t="s">
+      <c r="H4" s="115" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="69" t="s">
@@ -2026,7 +2117,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -2042,13 +2133,13 @@
       <c r="E5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>151</v>
+      <c r="F5" s="122" t="s">
+        <v>148</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="116" t="s">
+      <c r="H5" s="115" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="69" t="s">
@@ -2061,7 +2152,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -2078,12 +2169,12 @@
         <v>8</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="116" t="s">
+      <c r="H6" s="115" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="69" t="s">
@@ -2112,13 +2203,13 @@
       <c r="E7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>148</v>
+      <c r="F7" s="122" t="s">
+        <v>122</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="116" t="s">
+      <c r="H7" s="115" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="69" t="s">
@@ -2131,7 +2222,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -2147,13 +2238,13 @@
       <c r="E8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>153</v>
+      <c r="F8" s="122" t="s">
+        <v>158</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="116" t="s">
+      <c r="H8" s="115" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="69" t="s">
@@ -2166,7 +2257,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -2182,13 +2273,13 @@
       <c r="E9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="114" t="s">
-        <v>149</v>
+      <c r="F9" s="122" t="s">
+        <v>126</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="116" t="s">
+      <c r="H9" s="115" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="69" t="s">
@@ -2223,7 +2314,7 @@
       <c r="G10" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="116" t="s">
+      <c r="H10" s="115" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="69" t="s">
@@ -2272,11 +2363,8 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J11">
     <sortCondition ref="A5:A11"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1" xr:uid="{F74B2D46-B7DA-4528-9105-3EA979859116}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2286,7 +2374,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2392,7 +2480,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="53" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G3" s="54"/>
       <c r="H3" s="55"/>
@@ -2462,7 +2550,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G5" s="43" t="s">
         <v>8</v>
@@ -2499,7 +2587,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G6" s="59" t="s">
         <v>8</v>
@@ -2519,7 +2607,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="48" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>44</v>
       </c>
@@ -2539,10 +2627,10 @@
         <v>8</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H7" s="60" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="I7" s="77" t="s">
         <v>8</v>
@@ -2573,7 +2661,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G8" s="43" t="s">
         <v>8</v>
@@ -2591,7 +2679,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="48" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>46</v>
       </c>
@@ -2608,10 +2696,10 @@
         <v>10</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H9" s="60" t="s">
         <v>8</v>
@@ -2644,7 +2732,7 @@
       <c r="E10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="123">
+      <c r="F10" s="121">
         <v>44712</v>
       </c>
       <c r="G10" s="43" t="s">
@@ -2768,9 +2856,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840F4EBE-1122-49FE-9814-7C21AEF7536A}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2866,7 +2954,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="53" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="G3" s="57"/>
       <c r="H3" s="58"/>
@@ -2880,7 +2968,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="48" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>59</v>
       </c>
@@ -2900,10 +2988,10 @@
         <v>8</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H4" s="60" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>8</v>
@@ -2915,7 +3003,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="132" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="204" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>56</v>
       </c>
@@ -2931,13 +3019,13 @@
       <c r="E5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="122" t="s">
-        <v>167</v>
+      <c r="F5" s="120" t="s">
+        <v>169</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="H5" s="119" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" s="118" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="28" t="s">
@@ -2967,7 +3055,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G6" s="59" t="s">
         <v>8</v>
@@ -2985,7 +3073,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="48" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>54</v>
       </c>
@@ -3002,13 +3090,13 @@
         <v>8</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H7" s="60" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>8</v>
@@ -3020,7 +3108,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="48" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>58</v>
       </c>
@@ -3037,13 +3125,13 @@
         <v>8</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="116" t="s">
-        <v>8</v>
+        <v>170</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="118" t="s">
+        <v>171</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>8</v>
@@ -3055,7 +3143,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>60</v>
       </c>
@@ -3072,10 +3160,10 @@
         <v>8</v>
       </c>
       <c r="F9" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" s="59" t="s">
-        <v>8</v>
+        <v>166</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>159</v>
       </c>
       <c r="H9" s="60" t="s">
         <v>8</v>
@@ -3088,7 +3176,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="10" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>61</v>
       </c>
@@ -3105,13 +3193,13 @@
         <v>8</v>
       </c>
       <c r="F10" s="59" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="H10" s="116" t="s">
-        <v>160</v>
+        <v>159</v>
+      </c>
+      <c r="H10" s="118" t="s">
+        <v>167</v>
       </c>
       <c r="I10" s="43" t="s">
         <v>8</v>
@@ -3123,7 +3211,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>62</v>
       </c>
@@ -3139,11 +3227,11 @@
       <c r="E11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="48">
-        <v>45270</v>
-      </c>
-      <c r="G11" s="59" t="s">
-        <v>8</v>
+      <c r="F11" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>159</v>
       </c>
       <c r="H11" s="60" t="s">
         <v>8</v>
@@ -3175,7 +3263,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G12" s="59" t="s">
         <v>8</v>
@@ -3191,7 +3279,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="48" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
@@ -3208,12 +3296,12 @@
         <v>10</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="H13" s="116" t="s">
+        <v>159</v>
+      </c>
+      <c r="H13" s="115" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="28" t="s">
@@ -3226,7 +3314,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="48" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>71</v>
       </c>
@@ -3243,12 +3331,12 @@
         <v>10</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="G14" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="116" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" s="115" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="28" t="s">
@@ -3404,7 +3492,7 @@
       <c r="G3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="118" t="s">
+      <c r="H3" s="117" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="108" t="s">
@@ -3434,12 +3522,12 @@
         <v>10</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="118" t="s">
+      <c r="H4" s="117" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="59" t="s">
@@ -3469,12 +3557,12 @@
         <v>10</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="118" t="s">
+      <c r="H5" s="117" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="59" t="s">
@@ -3504,12 +3592,12 @@
         <v>10</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="118" t="s">
+      <c r="H6" s="117" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="59" t="s">
